--- a/2013技术部分组.xlsx
+++ b/2013技术部分组.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\魏睿\网协\技术部\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\魏睿\网协\技术部\document_shared\bitnp_document_shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="0" windowWidth="9750" windowHeight="6510"/>
+    <workbookView xWindow="13950" yWindow="0" windowWidth="9750" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="分组" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="189">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -760,6 +760,10 @@
   </si>
   <si>
     <t>应用组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,7 +919,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -981,6 +985,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -990,7 +1003,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="样式 1" xfId="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <font>
         <b val="0"/>
@@ -1128,6 +1141,24 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
         <name val="宋体"/>
@@ -1149,18 +1180,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F57" totalsRowShown="0" headerRowDxfId="7" dataDxfId="0">
-  <autoFilter ref="A1:F57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G57" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G57"/>
   <sortState ref="A2:F57">
     <sortCondition ref="D1:D57"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="7">
     <tableColumn id="1" name="姓名" dataDxfId="6"/>
     <tableColumn id="2" name="性别" dataDxfId="5"/>
     <tableColumn id="3" name="专业" dataDxfId="4"/>
     <tableColumn id="4" name="组别" dataDxfId="3"/>
     <tableColumn id="5" name="电话" dataDxfId="2"/>
     <tableColumn id="6" name="邮箱" dataDxfId="1"/>
+    <tableColumn id="7" name="qq" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1429,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.25" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1446,7 +1478,7 @@
     <col min="7" max="16384" width="23.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1465,8 +1497,11 @@
       <c r="F1" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G1" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
         <v>53</v>
       </c>
@@ -1485,8 +1520,9 @@
       <c r="F2" s="15" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
@@ -1505,8 +1541,9 @@
       <c r="F3" s="15" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>50</v>
       </c>
@@ -1525,8 +1562,9 @@
       <c r="F4" s="16" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>72</v>
       </c>
@@ -1545,8 +1583,9 @@
       <c r="F5" s="15" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
         <v>66</v>
       </c>
@@ -1565,8 +1604,9 @@
       <c r="F6" s="18" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
         <v>8</v>
       </c>
@@ -1585,8 +1625,9 @@
       <c r="F7" s="18" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
         <v>49</v>
       </c>
@@ -1605,8 +1646,9 @@
       <c r="F8" s="18" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
         <v>12</v>
       </c>
@@ -1625,8 +1667,9 @@
       <c r="F9" s="18" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17" t="s">
         <v>27</v>
       </c>
@@ -1645,8 +1688,9 @@
       <c r="F10" s="18" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
         <v>58</v>
       </c>
@@ -1665,8 +1709,9 @@
       <c r="F11" s="18" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
         <v>112</v>
       </c>
@@ -1685,8 +1730,9 @@
       <c r="F12" s="18" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
         <v>103</v>
       </c>
@@ -1705,8 +1751,9 @@
       <c r="F13" s="18" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
         <v>109</v>
       </c>
@@ -1725,8 +1772,9 @@
       <c r="F14" s="18" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
         <v>15</v>
       </c>
@@ -1745,8 +1793,9 @@
       <c r="F15" s="18" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
         <v>65</v>
       </c>
@@ -1765,8 +1814,9 @@
       <c r="F16" s="18" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
         <v>56</v>
       </c>
@@ -1785,8 +1835,9 @@
       <c r="F17" s="18" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
         <v>61</v>
       </c>
@@ -1805,8 +1856,9 @@
       <c r="F18" s="18" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
         <v>24</v>
       </c>
@@ -1825,8 +1877,9 @@
       <c r="F19" s="18" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="17" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1898,9 @@
       <c r="F20" s="18" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17" t="s">
         <v>104</v>
       </c>
@@ -1865,8 +1919,9 @@
       <c r="F21" s="18" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>28</v>
       </c>
@@ -1885,8 +1940,9 @@
       <c r="F22" s="11" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>46</v>
       </c>
@@ -1905,8 +1961,9 @@
       <c r="F23" s="11" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>116</v>
       </c>
@@ -1925,8 +1982,9 @@
       <c r="F24" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>43</v>
       </c>
@@ -1945,8 +2003,9 @@
       <c r="F25" s="11" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1963,8 +2022,9 @@
         <v>13269557117</v>
       </c>
       <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>39</v>
       </c>
@@ -1983,8 +2043,9 @@
       <c r="F27" s="11" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>74</v>
       </c>
@@ -2003,8 +2064,9 @@
       <c r="F28" s="11" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="21" t="s">
         <v>16</v>
       </c>
@@ -2023,8 +2085,9 @@
       <c r="F29" s="19" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="21" t="s">
         <v>9</v>
       </c>
@@ -2043,8 +2106,9 @@
       <c r="F30" s="19" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="21" t="s">
         <v>44</v>
       </c>
@@ -2063,8 +2127,9 @@
       <c r="F31" s="19" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="21" t="s">
         <v>57</v>
       </c>
@@ -2083,8 +2148,9 @@
       <c r="F32" s="19" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
         <v>55</v>
       </c>
@@ -2103,8 +2169,9 @@
       <c r="F33" s="19" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="21" t="s">
         <v>19</v>
       </c>
@@ -2123,8 +2190,9 @@
       <c r="F34" s="19" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="21" t="s">
         <v>64</v>
       </c>
@@ -2143,8 +2211,9 @@
       <c r="F35" s="19" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="21" t="s">
         <v>40</v>
       </c>
@@ -2163,8 +2232,9 @@
       <c r="F36" s="19" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="21" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2253,9 @@
       <c r="F37" s="19" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="21" t="s">
         <v>54</v>
       </c>
@@ -2203,8 +2274,9 @@
       <c r="F38" s="19" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="21" t="s">
         <v>73</v>
       </c>
@@ -2223,8 +2295,9 @@
       <c r="F39" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="1:7" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="21" t="s">
         <v>60</v>
       </c>
@@ -2243,8 +2316,9 @@
       <c r="F40" s="19" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>62</v>
       </c>
@@ -2261,8 +2335,9 @@
       <c r="F41" s="6" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>23</v>
       </c>
@@ -2279,8 +2354,9 @@
       <c r="F42" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>20</v>
       </c>
@@ -2297,8 +2373,9 @@
       <c r="F43" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
         <v>59</v>
       </c>
@@ -2311,8 +2388,9 @@
         <v>15613734460</v>
       </c>
       <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>29</v>
       </c>
@@ -2329,8 +2407,9 @@
       <c r="F45" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>21</v>
       </c>
@@ -2345,8 +2424,9 @@
         <v>18813008913</v>
       </c>
       <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
         <v>108</v>
       </c>
@@ -2363,8 +2443,9 @@
       <c r="F47" s="6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
         <v>68</v>
       </c>
@@ -2381,8 +2462,9 @@
       <c r="F48" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
         <v>45</v>
       </c>
@@ -2399,8 +2481,9 @@
       <c r="F49" s="6" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>31</v>
       </c>
@@ -2417,8 +2500,9 @@
       <c r="F50" s="6" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>25</v>
       </c>
@@ -2435,8 +2519,9 @@
       <c r="F51" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G51" s="24"/>
+    </row>
+    <row r="52" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>63</v>
       </c>
@@ -2453,8 +2538,9 @@
       <c r="F52" s="6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G52" s="24"/>
+    </row>
+    <row r="53" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>22</v>
       </c>
@@ -2469,8 +2555,9 @@
         <v>18643267208</v>
       </c>
       <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>11</v>
       </c>
@@ -2487,8 +2574,9 @@
       <c r="F54" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G54" s="24"/>
+    </row>
+    <row r="55" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>18</v>
       </c>
@@ -2505,8 +2593,9 @@
       <c r="F55" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G55" s="24"/>
+    </row>
+    <row r="56" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>30</v>
       </c>
@@ -2523,8 +2612,9 @@
       <c r="F56" s="6" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G56" s="24"/>
+    </row>
+    <row r="57" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>42</v>
       </c>
@@ -2541,6 +2631,7 @@
       <c r="F57" s="6" t="s">
         <v>147</v>
       </c>
+      <c r="G57" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2013技术部分组.xlsx
+++ b/2013技术部分组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="0" windowWidth="9750" windowHeight="6510"/>
+    <workbookView xWindow="14880" yWindow="0" windowWidth="9750" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="分组" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="197">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -739,10 +739,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>应用组，网页组，游戏组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>应用组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -763,7 +759,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qq</t>
+    <t>应用组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,7 +938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -919,7 +951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,7 +961,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -977,22 +1009,37 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1003,25 +1050,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="样式 1" xfId="1"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -1180,19 +1209,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G57" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F57" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F57"/>
   <sortState ref="A2:F57">
     <sortCondition ref="D1:D57"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" name="姓名" dataDxfId="6"/>
-    <tableColumn id="2" name="性别" dataDxfId="5"/>
-    <tableColumn id="3" name="专业" dataDxfId="4"/>
-    <tableColumn id="4" name="组别" dataDxfId="3"/>
-    <tableColumn id="5" name="电话" dataDxfId="2"/>
-    <tableColumn id="6" name="邮箱" dataDxfId="1"/>
-    <tableColumn id="7" name="qq" dataDxfId="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="姓名" dataDxfId="5"/>
+    <tableColumn id="2" name="性别" dataDxfId="4"/>
+    <tableColumn id="3" name="专业" dataDxfId="3"/>
+    <tableColumn id="4" name="组别" dataDxfId="2"/>
+    <tableColumn id="5" name="电话" dataDxfId="1"/>
+    <tableColumn id="6" name="邮箱" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1461,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.25" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1478,7 +1506,7 @@
     <col min="7" max="16384" width="23.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1497,11 +1525,8 @@
       <c r="F1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
         <v>53</v>
       </c>
@@ -1520,9 +1545,8 @@
       <c r="F2" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
@@ -1541,9 +1565,8 @@
       <c r="F3" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>50</v>
       </c>
@@ -1562,9 +1585,8 @@
       <c r="F4" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>72</v>
       </c>
@@ -1583,9 +1605,8 @@
       <c r="F5" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
         <v>66</v>
       </c>
@@ -1604,9 +1625,8 @@
       <c r="F6" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
         <v>8</v>
       </c>
@@ -1625,9 +1645,8 @@
       <c r="F7" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
         <v>49</v>
       </c>
@@ -1646,9 +1665,8 @@
       <c r="F8" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
         <v>12</v>
       </c>
@@ -1667,9 +1685,8 @@
       <c r="F9" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17" t="s">
         <v>27</v>
       </c>
@@ -1688,9 +1705,8 @@
       <c r="F10" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
         <v>58</v>
       </c>
@@ -1709,9 +1725,8 @@
       <c r="F11" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
         <v>112</v>
       </c>
@@ -1722,7 +1737,7 @@
         <v>114</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E12" s="18">
         <v>18810930801</v>
@@ -1730,9 +1745,8 @@
       <c r="F12" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
         <v>103</v>
       </c>
@@ -1743,7 +1757,7 @@
         <v>84</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E13" s="18">
         <v>18810932044</v>
@@ -1751,9 +1765,8 @@
       <c r="F13" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
         <v>109</v>
       </c>
@@ -1764,7 +1777,7 @@
         <v>111</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E14" s="18">
         <v>13717591081</v>
@@ -1772,9 +1785,8 @@
       <c r="F14" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
         <v>15</v>
       </c>
@@ -1793,9 +1805,8 @@
       <c r="F15" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
         <v>65</v>
       </c>
@@ -1814,9 +1825,8 @@
       <c r="F16" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
         <v>56</v>
       </c>
@@ -1835,9 +1845,8 @@
       <c r="F17" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
         <v>61</v>
       </c>
@@ -1856,9 +1865,8 @@
       <c r="F18" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
         <v>24</v>
       </c>
@@ -1877,9 +1885,8 @@
       <c r="F19" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="17" t="s">
         <v>26</v>
       </c>
@@ -1898,9 +1905,8 @@
       <c r="F20" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="1:7" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17" t="s">
         <v>104</v>
       </c>
@@ -1911,7 +1917,7 @@
         <v>105</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E21" s="18">
         <v>13269688931</v>
@@ -1919,30 +1925,28 @@
       <c r="F21" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
+    </row>
+    <row r="22" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E22" s="11">
+      <c r="D22" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="26">
         <v>13269355161</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:6" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>46</v>
       </c>
@@ -1961,51 +1965,48 @@
       <c r="F23" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
+    </row>
+    <row r="24" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E24" s="11">
+      <c r="D24" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="24">
         <v>18810930753</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
+    </row>
+    <row r="25" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E25" s="11">
+      <c r="D25" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" s="26">
         <v>13269569950</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:6" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>41</v>
       </c>
@@ -2022,9 +2023,8 @@
         <v>13269557117</v>
       </c>
       <c r="F26" s="11"/>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:6" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>39</v>
       </c>
@@ -2043,30 +2043,28 @@
       <c r="F27" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
+    </row>
+    <row r="28" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28" s="11">
+      <c r="D28" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="26">
         <v>18813006553</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="21" t="s">
         <v>16</v>
       </c>
@@ -2085,9 +2083,8 @@
       <c r="F29" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="21" t="s">
         <v>9</v>
       </c>
@@ -2106,9 +2103,8 @@
       <c r="F30" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="21" t="s">
         <v>44</v>
       </c>
@@ -2127,9 +2123,8 @@
       <c r="F31" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="21" t="s">
         <v>57</v>
       </c>
@@ -2148,9 +2143,8 @@
       <c r="F32" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
         <v>55</v>
       </c>
@@ -2169,9 +2163,8 @@
       <c r="F33" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="21" t="s">
         <v>19</v>
       </c>
@@ -2190,9 +2183,8 @@
       <c r="F34" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="21" t="s">
         <v>64</v>
       </c>
@@ -2203,7 +2195,7 @@
         <v>84</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E35" s="21">
         <v>18810932070</v>
@@ -2211,9 +2203,8 @@
       <c r="F35" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="21" t="s">
         <v>40</v>
       </c>
@@ -2232,9 +2223,8 @@
       <c r="F36" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="G36" s="19"/>
-    </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="21" t="s">
         <v>3</v>
       </c>
@@ -2253,9 +2243,8 @@
       <c r="F37" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="19"/>
-    </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="21" t="s">
         <v>54</v>
       </c>
@@ -2274,9 +2263,8 @@
       <c r="F38" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="21" t="s">
         <v>73</v>
       </c>
@@ -2295,9 +2283,8 @@
       <c r="F39" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="G39" s="19"/>
-    </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:6" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="21" t="s">
         <v>60</v>
       </c>
@@ -2316,9 +2303,8 @@
       <c r="F40" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="G40" s="19"/>
-    </row>
-    <row r="41" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>62</v>
       </c>
@@ -2335,62 +2321,66 @@
       <c r="F41" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G41" s="24"/>
-    </row>
-    <row r="42" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="7" t="s">
+    </row>
+    <row r="42" spans="1:6" s="22" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6">
+      <c r="D42" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="22">
         <v>13269193506</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="G42" s="24"/>
-    </row>
-    <row r="43" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="7" t="s">
+    </row>
+    <row r="43" spans="1:6" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6">
+      <c r="D43" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="28">
         <v>13269355075</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="G43" s="24"/>
-    </row>
-    <row r="44" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="7" t="s">
+    </row>
+    <row r="44" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6">
+      <c r="C44" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E44" s="26">
         <v>15613734460</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="24"/>
-    </row>
-    <row r="45" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F44" s="26"/>
+    </row>
+    <row r="45" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>29</v>
       </c>
@@ -2407,45 +2397,46 @@
       <c r="F45" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G45" s="24"/>
-    </row>
-    <row r="46" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
+    </row>
+    <row r="46" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6">
+      <c r="D46" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="26">
         <v>18813008913</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="24"/>
-    </row>
-    <row r="47" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
+      <c r="F46" s="26"/>
+    </row>
+    <row r="47" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6">
+      <c r="D47" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="24">
         <v>18810965494</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="G47" s="24"/>
-    </row>
-    <row r="48" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
         <v>68</v>
       </c>
@@ -2462,47 +2453,48 @@
       <c r="F48" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G48" s="24"/>
-    </row>
-    <row r="49" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="7" t="s">
+    </row>
+    <row r="49" spans="1:6" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6">
+      <c r="D49" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="28">
         <v>18810969385</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="G49" s="24"/>
-    </row>
-    <row r="50" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="7" t="s">
+    </row>
+    <row r="50" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6">
+      <c r="D50" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" s="24">
         <v>18810933563</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="G50" s="24"/>
-    </row>
-    <row r="51" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>25</v>
       </c>
@@ -2519,9 +2511,8 @@
       <c r="F51" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G51" s="24"/>
-    </row>
-    <row r="52" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>63</v>
       </c>
@@ -2538,9 +2529,8 @@
       <c r="F52" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G52" s="24"/>
-    </row>
-    <row r="53" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>22</v>
       </c>
@@ -2555,47 +2545,48 @@
         <v>18643267208</v>
       </c>
       <c r="F53" s="6"/>
-      <c r="G53" s="24"/>
-    </row>
-    <row r="54" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="7" t="s">
+    </row>
+    <row r="54" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6">
+      <c r="D54" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E54" s="24">
         <v>18810932587</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G54" s="24"/>
-    </row>
-    <row r="55" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="7" t="s">
+    </row>
+    <row r="55" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6">
+      <c r="D55" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55" s="24">
         <v>13261287803</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="G55" s="24"/>
-    </row>
-    <row r="56" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>30</v>
       </c>
@@ -2612,9 +2603,8 @@
       <c r="F56" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G56" s="24"/>
-    </row>
-    <row r="57" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>42</v>
       </c>
@@ -2631,7 +2621,6 @@
       <c r="F57" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G57" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2013技术部分组.xlsx
+++ b/2013技术部分组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="0" windowWidth="9750" windowHeight="6510"/>
+    <workbookView xWindow="20460" yWindow="0" windowWidth="3750" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="分组" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="202">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -731,14 +731,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>应用组，网页组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用组，游戏组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>应用组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -796,6 +788,34 @@
   </si>
   <si>
     <t>网页组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,7 +823,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,14 +871,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -874,16 +886,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -894,11 +898,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -914,7 +913,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -922,36 +921,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,123 +955,80 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="40% - 着色 1" xfId="3" builtinId="31"/>
-    <cellStyle name="40% - 着色 4" xfId="4" builtinId="43"/>
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="4">
+    <cellStyle name="40% - 着色 1" xfId="2" builtinId="31"/>
+    <cellStyle name="40% - 着色 4" xfId="3" builtinId="43"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="样式 1" xfId="1"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1188,6 +1130,42 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
         <name val="宋体"/>
@@ -1215,12 +1193,12 @@
     <sortCondition ref="D1:D57"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="姓名" dataDxfId="5"/>
-    <tableColumn id="2" name="性别" dataDxfId="4"/>
-    <tableColumn id="3" name="专业" dataDxfId="3"/>
-    <tableColumn id="4" name="组别" dataDxfId="2"/>
-    <tableColumn id="5" name="电话" dataDxfId="1"/>
-    <tableColumn id="6" name="邮箱" dataDxfId="0"/>
+    <tableColumn id="1" name="姓名" dataDxfId="3"/>
+    <tableColumn id="2" name="性别" dataDxfId="2"/>
+    <tableColumn id="3" name="专业" dataDxfId="0"/>
+    <tableColumn id="4" name="组别" dataDxfId="1"/>
+    <tableColumn id="5" name="电话" dataDxfId="5"/>
+    <tableColumn id="6" name="邮箱" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1489,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.25" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1506,7 +1484,7 @@
     <col min="7" max="16384" width="23.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1525,1102 +1503,1511 @@
       <c r="F1" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+    </row>
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="21">
+        <v>13269327181</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="21">
+        <v>18810965494</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="21">
+        <v>18810933563</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+    </row>
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D5" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E5" s="21">
         <v>18810934176</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F5" s="12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+    </row>
+    <row r="6" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="21">
+        <v>18810930749</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="21">
+        <v>13264221336</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E8" s="21">
         <v>13261263962</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F8" s="12" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E9" s="21">
         <v>18810929881</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F9" s="13" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="15">
-        <v>13264221336</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
+      <c r="C10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="21">
+        <v>18810932587</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="21">
+        <v>13261287803</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="21">
+        <v>13261292292</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="21">
+        <v>18810930753</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C14" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D14" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E14" s="23">
         <v>13269688781</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F14" s="15" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="23">
+        <v>13269557117</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" s="23">
+        <v>13269352272</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D17" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E17" s="23">
         <v>13269358969</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F17" s="15" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17" t="s">
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="24">
+        <v>13269193506</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B19" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C19" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D19" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E19" s="23">
         <v>18810929930</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F19" s="15" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="23">
+        <v>15613734460</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B21" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D21" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E21" s="23">
         <v>13269327137</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F21" s="15" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B22" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D22" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E22" s="23">
         <v>18810929923</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F22" s="15" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="23">
+        <v>18813008913</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B24" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C24" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D24" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E24" s="23">
         <v>13269282813</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F24" s="15" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" s="23">
+        <v>13269355161</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B26" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C26" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="D26" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="23">
         <v>18810930801</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F26" s="15" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B27" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C27" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D27" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="23">
+        <v>18810932044</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="23">
+        <v>13717591081</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="23">
+        <v>15641817006</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" s="23">
+        <v>18810931246</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" s="23">
+        <v>18810929690</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" s="23">
+        <v>18643267208</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+    </row>
+    <row r="33" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="23">
+        <v>13269569950</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+    </row>
+    <row r="34" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="23">
+        <v>18611939243</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+    </row>
+    <row r="35" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="23">
+        <v>13269320397</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+    </row>
+    <row r="36" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="23">
+        <v>18686973711</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+    </row>
+    <row r="37" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" s="23">
+        <v>18813006553</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+    </row>
+    <row r="38" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="23">
+        <v>13269688931</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+    </row>
+    <row r="39" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" s="23">
+        <v>13269626891</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+    </row>
+    <row r="40" spans="1:13" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E40" s="23">
+        <v>18810965270</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+    </row>
+    <row r="41" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="25">
+        <v>15350667769</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+    </row>
+    <row r="42" spans="1:13" s="20" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" s="25">
+        <v>13269101298</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+    </row>
+    <row r="43" spans="1:13" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="25">
+        <v>18810931902</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+    </row>
+    <row r="44" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="25">
+        <v>18810933457</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+    </row>
+    <row r="45" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="25">
+        <v>13269355075</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+    </row>
+    <row r="46" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="25">
+        <v>18810939407</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+    </row>
+    <row r="47" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="25">
+        <v>18810969385</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+    </row>
+    <row r="48" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" s="25">
+        <v>18810929925</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+    </row>
+    <row r="49" spans="1:13" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="18">
-        <v>18810932044</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="E14" s="18">
-        <v>13717591081</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="17" t="s">
+      <c r="E49" s="25">
+        <v>18810932070</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+    </row>
+    <row r="50" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="18">
-        <v>15641817006</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="18" t="s">
+      <c r="C50" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="25">
+        <v>18810929967</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+    </row>
+    <row r="51" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="25">
+        <v>18810089272</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+    </row>
+    <row r="52" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="E16" s="18">
-        <v>18810931246</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="D52" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="25">
+        <v>13269669630</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+    </row>
+    <row r="53" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E53" s="25">
+        <v>13264220951</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+    </row>
+    <row r="54" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="E17" s="18">
-        <v>18810929690</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="E18" s="18">
-        <v>18611939243</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="E19" s="18">
-        <v>13269320397</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="17" t="s">
+      <c r="C54" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" s="25">
+        <v>13718225108</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+    </row>
+    <row r="55" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="26">
+        <v>18810968974</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+    </row>
+    <row r="56" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="26">
+        <v>13521269742</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+    </row>
+    <row r="57" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="18">
-        <v>18686973711</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="18">
-        <v>13269688931</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" s="26">
-        <v>13269355161</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E23" s="11">
-        <v>13269626891</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="E24" s="24">
-        <v>18810930753</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E25" s="26">
-        <v>13269569950</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E26" s="11">
-        <v>13269557117</v>
-      </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E27" s="11">
-        <v>13269352272</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="26">
-        <v>18813006553</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" s="21">
-        <v>15350667769</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E30" s="21">
-        <v>13269101298</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E31" s="21">
-        <v>18810931902</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E32" s="21">
-        <v>18810933457</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E33" s="21">
-        <v>18810939407</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E34" s="21">
-        <v>18810929925</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="E35" s="21">
-        <v>18810932070</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E36" s="21">
-        <v>18810929967</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="21">
-        <v>18810089272</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E38" s="21">
-        <v>13269669630</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E39" s="21">
-        <v>13264220951</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E40" s="21">
-        <v>13718225108</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6">
-        <v>18810968974</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="22" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" s="22">
-        <v>13269193506</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="E43" s="28">
-        <v>13269355075</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="E44" s="26">
-        <v>15613734460</v>
-      </c>
-      <c r="F44" s="26"/>
-    </row>
-    <row r="45" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6">
-        <v>13269327181</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="E46" s="26">
-        <v>18813008913</v>
-      </c>
-      <c r="F46" s="26"/>
-    </row>
-    <row r="47" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="E47" s="24">
-        <v>18810965494</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6">
-        <v>13521269742</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="27" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="E49" s="28">
-        <v>18810969385</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="E50" s="24">
-        <v>18810933563</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6">
+      <c r="D57" s="6"/>
+      <c r="E57" s="26">
         <v>13269668138</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F57" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6">
-        <v>18810930749</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6">
-        <v>18643267208</v>
-      </c>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E54" s="24">
-        <v>18810932587</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="E55" s="24">
-        <v>13261287803</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6">
-        <v>13261292292</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6">
-        <v>18810965270</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>147</v>
-      </c>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2013技术部分组.xlsx
+++ b/2013技术部分组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20460" yWindow="0" windowWidth="3750" windowHeight="6510"/>
+    <workbookView xWindow="21390" yWindow="0" windowWidth="3750" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="分组" sheetId="1" r:id="rId1"/>
@@ -1081,7 +1081,25 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1117,25 +1135,7 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1193,12 +1193,12 @@
     <sortCondition ref="D1:D57"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="姓名" dataDxfId="3"/>
-    <tableColumn id="2" name="性别" dataDxfId="2"/>
-    <tableColumn id="3" name="专业" dataDxfId="0"/>
-    <tableColumn id="4" name="组别" dataDxfId="1"/>
-    <tableColumn id="5" name="电话" dataDxfId="5"/>
-    <tableColumn id="6" name="邮箱" dataDxfId="4"/>
+    <tableColumn id="1" name="姓名" dataDxfId="5"/>
+    <tableColumn id="2" name="性别" dataDxfId="4"/>
+    <tableColumn id="3" name="专业" dataDxfId="3"/>
+    <tableColumn id="4" name="组别" dataDxfId="2"/>
+    <tableColumn id="5" name="电话" dataDxfId="1"/>
+    <tableColumn id="6" name="邮箱" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1469,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.25" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2705,7 +2705,7 @@
         <v>174</v>
       </c>
       <c r="E46" s="25">
-        <v>18810939407</v>
+        <v>18810933407</v>
       </c>
       <c r="F46" s="16" t="s">
         <v>159</v>

--- a/2013技术部分组.xlsx
+++ b/2013技术部分组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21390" yWindow="0" windowWidth="3750" windowHeight="6510"/>
+    <workbookView xWindow="22320" yWindow="0" windowWidth="3750" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="分组" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="229">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -816,6 +816,111 @@
   </si>
   <si>
     <t>应用组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>738220745@qq.com</t>
+  </si>
+  <si>
+    <t>张云东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>412155002@qq.com</t>
+  </si>
+  <si>
+    <t>应用组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡熠锦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>963419346@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱琦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18686110801@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallent.55555@163.com</t>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏睿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weirui1994@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1294248004@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张晨露</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -823,7 +928,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,6 +991,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -936,7 +1059,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1019,6 +1142,42 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1187,8 +1346,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F57" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F64" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F64"/>
   <sortState ref="A2:F57">
     <sortCondition ref="D1:D57"/>
   </sortState>
@@ -1467,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.25" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1484,7 +1643,7 @@
     <col min="7" max="16384" width="23.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1511,24 +1670,22 @@
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="21">
-        <v>13269327181</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>141</v>
+    <row r="2" spans="1:14" s="35" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="34">
+        <v>13260301673</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>204</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -1537,25 +1694,24 @@
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
-    </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="21">
-        <v>18810965494</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>152</v>
+      <c r="N2"/>
+    </row>
+    <row r="3" spans="1:14" s="35" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="34">
+        <v>13718107605</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>218</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -1564,25 +1720,26 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
-    </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E4" s="21">
-        <v>18810933563</v>
+        <v>13269327181</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -1591,25 +1748,26 @@
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
-    </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>177</v>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>187</v>
       </c>
       <c r="E5" s="21">
-        <v>18810934176</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>157</v>
+        <v>18810965494</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -1618,25 +1776,26 @@
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
-    </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E6" s="21">
-        <v>18810930749</v>
+        <v>18810933563</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -1645,25 +1804,26 @@
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
-    </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>177</v>
       </c>
       <c r="E7" s="21">
-        <v>13264221336</v>
+        <v>18810934176</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -1672,25 +1832,26 @@
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
-    </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>177</v>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="E8" s="21">
-        <v>13261263962</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>126</v>
+        <v>18810930749</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -1699,25 +1860,26 @@
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
-    </row>
-    <row r="9" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>177</v>
       </c>
       <c r="E9" s="21">
-        <v>18810929881</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>154</v>
+        <v>13264221336</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -1726,25 +1888,26 @@
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
-    </row>
-    <row r="10" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>186</v>
+      <c r="C10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="E10" s="21">
-        <v>18810932587</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>124</v>
+        <v>13261263962</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -1753,25 +1916,26 @@
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
-    </row>
-    <row r="11" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>187</v>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="E11" s="21">
-        <v>13261287803</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>132</v>
+        <v>18810929881</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -1780,25 +1944,26 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
-    </row>
-    <row r="12" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E12" s="21">
-        <v>13261292292</v>
+        <v>18810932587</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -1807,25 +1972,26 @@
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
-    </row>
-    <row r="13" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E13" s="21">
-        <v>18810930753</v>
+        <v>13261287803</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -1834,25 +2000,26 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
-    </row>
-    <row r="14" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E14" s="23">
-        <v>13269688781</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>131</v>
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="21">
+        <v>13261292292</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -1861,24 +2028,27 @@
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
-    </row>
-    <row r="15" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="23">
-        <v>13269557117</v>
-      </c>
-      <c r="F15" s="15"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="21">
+        <v>18810930753</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>172</v>
+      </c>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -1886,25 +2056,26 @@
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
-    </row>
-    <row r="16" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" s="23">
-        <v>13269352272</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>145</v>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:14" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="E16" s="29">
+        <v>18686110801</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>216</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -1913,25 +2084,24 @@
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
-    </row>
-    <row r="17" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E17" s="23">
-        <v>13269358969</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>122</v>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:14" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="29">
+        <v>13717597950</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>207</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -1940,25 +2110,26 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
-    </row>
-    <row r="18" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="24">
-        <v>13269193506</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>135</v>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:14" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="29">
+        <v>13311186695</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>213</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -1967,25 +2138,26 @@
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
-    </row>
-    <row r="19" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>175</v>
       </c>
       <c r="E19" s="23">
-        <v>18810929930</v>
+        <v>13269688781</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -1994,22 +2166,23 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
-    </row>
-    <row r="20" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="E20" s="23">
-        <v>15613734460</v>
+        <v>13269557117</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20"/>
@@ -2019,25 +2192,26 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="E21" s="23">
-        <v>13269327137</v>
+        <v>13269352272</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -2046,25 +2220,26 @@
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
-    </row>
-    <row r="22" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>175</v>
       </c>
       <c r="E22" s="23">
-        <v>18810929923</v>
+        <v>13269358969</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -2073,24 +2248,27 @@
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
-    </row>
-    <row r="23" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="15" t="s">
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="E23" s="23">
-        <v>18813008913</v>
-      </c>
-      <c r="F23" s="15"/>
+      <c r="D23" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="24">
+        <v>13269193506</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>135</v>
+      </c>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
@@ -2098,25 +2276,26 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
-    </row>
-    <row r="24" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>175</v>
       </c>
       <c r="E24" s="23">
-        <v>13269282813</v>
+        <v>18810929930</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -2125,26 +2304,25 @@
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
-    </row>
-    <row r="25" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="E25" s="23">
-        <v>13269355161</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>140</v>
-      </c>
+        <v>15613734460</v>
+      </c>
+      <c r="F25" s="15"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
@@ -2152,25 +2330,26 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
-    </row>
-    <row r="26" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E26" s="23">
-        <v>18810930801</v>
+        <v>13269327137</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -2179,25 +2358,26 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
-    </row>
-    <row r="27" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E27" s="23">
-        <v>18810932044</v>
+        <v>18810929923</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -2206,26 +2386,25 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
-    </row>
-    <row r="28" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E28" s="23">
-        <v>13717591081</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>170</v>
-      </c>
+        <v>18813008913</v>
+      </c>
+      <c r="F28" s="15"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
@@ -2233,25 +2412,26 @@
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
-    </row>
-    <row r="29" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>175</v>
       </c>
       <c r="E29" s="23">
-        <v>15641817006</v>
+        <v>13269282813</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -2260,25 +2440,26 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
-    </row>
-    <row r="30" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>175</v>
       </c>
       <c r="E30" s="23">
-        <v>18810931246</v>
+        <v>13269355161</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
@@ -2287,25 +2468,26 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
-    </row>
-    <row r="31" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E31" s="23">
-        <v>18810929690</v>
+        <v>18810930801</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -2314,24 +2496,27 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
-    </row>
-    <row r="32" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E32" s="23">
-        <v>18643267208</v>
-      </c>
-      <c r="F32" s="15"/>
+        <v>18810932044</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>164</v>
+      </c>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
@@ -2339,25 +2524,26 @@
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
-    </row>
-    <row r="33" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E33" s="23">
-        <v>13269569950</v>
+        <v>13717591081</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -2366,25 +2552,26 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
-    </row>
-    <row r="34" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>175</v>
       </c>
       <c r="E34" s="23">
-        <v>18611939243</v>
+        <v>15641817006</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -2393,25 +2580,26 @@
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
-    </row>
-    <row r="35" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N34"/>
+    </row>
+    <row r="35" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>175</v>
       </c>
       <c r="E35" s="23">
-        <v>13269320397</v>
+        <v>18810931246</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -2420,25 +2608,26 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
-    </row>
-    <row r="36" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N35"/>
+    </row>
+    <row r="36" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>175</v>
       </c>
       <c r="E36" s="23">
-        <v>18686973711</v>
+        <v>18810929690</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
@@ -2447,26 +2636,25 @@
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
-    </row>
-    <row r="37" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="E37" s="23">
-        <v>18813006553</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>169</v>
-      </c>
+        <v>18643267208</v>
+      </c>
+      <c r="F37" s="15"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -2474,25 +2662,26 @@
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
-    </row>
-    <row r="38" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N37"/>
+    </row>
+    <row r="38" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="14" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E38" s="23">
-        <v>13269688931</v>
+        <v>13269569950</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
@@ -2501,25 +2690,26 @@
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
-    </row>
-    <row r="39" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N38"/>
+    </row>
+    <row r="39" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="E39" s="23">
-        <v>13269626891</v>
+        <v>18611939243</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -2528,25 +2718,26 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
-    </row>
-    <row r="40" spans="1:13" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N39"/>
+    </row>
+    <row r="40" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="E40" s="23">
-        <v>18810965270</v>
+        <v>13269320397</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -2555,25 +2746,26 @@
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
-    </row>
-    <row r="41" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E41" s="25">
-        <v>15350667769</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>129</v>
+      <c r="N40"/>
+    </row>
+    <row r="41" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" s="23">
+        <v>18686973711</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
@@ -2582,25 +2774,26 @@
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
-    </row>
-    <row r="42" spans="1:13" s="20" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E42" s="25">
-        <v>13269101298</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>123</v>
+      <c r="N41"/>
+    </row>
+    <row r="42" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="23">
+        <v>18813006553</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>169</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
@@ -2609,25 +2802,26 @@
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
-    </row>
-    <row r="43" spans="1:13" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" s="25">
-        <v>18810931902</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>149</v>
+      <c r="N42"/>
+    </row>
+    <row r="43" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="23">
+        <v>13269688931</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
@@ -2636,25 +2830,26 @@
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
-    </row>
-    <row r="44" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E44" s="25">
-        <v>18810933457</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>161</v>
+      <c r="N43"/>
+    </row>
+    <row r="44" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E44" s="23">
+        <v>13269626891</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
@@ -2663,25 +2858,26 @@
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
-    </row>
-    <row r="45" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="E45" s="25">
-        <v>13269355075</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>134</v>
+      <c r="N44"/>
+    </row>
+    <row r="45" spans="1:14" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" s="23">
+        <v>18810965270</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="G45"/>
       <c r="H45"/>
@@ -2690,79 +2886,82 @@
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
-    </row>
-    <row r="46" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="16" t="s">
+      <c r="N45"/>
+    </row>
+    <row r="46" spans="1:14" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46" s="37">
+        <v>18001356302</v>
+      </c>
+      <c r="F46" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+    </row>
+    <row r="47" spans="1:14" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47" s="37">
+        <v>13718909663</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+    </row>
+    <row r="48" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="E46" s="25">
-        <v>18810933407</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-    </row>
-    <row r="47" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="E47" s="25">
-        <v>18810969385</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-    </row>
-    <row r="48" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>179</v>
       </c>
       <c r="E48" s="25">
-        <v>18810929925</v>
+        <v>15350667769</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
@@ -2771,25 +2970,26 @@
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48"/>
-    </row>
-    <row r="49" spans="1:13" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N48"/>
+    </row>
+    <row r="49" spans="1:14" s="20" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E49" s="25">
-        <v>18810932070</v>
+        <v>13269101298</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
@@ -2798,25 +2998,26 @@
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
-    </row>
-    <row r="50" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N49"/>
+    </row>
+    <row r="50" spans="1:14" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>176</v>
       </c>
       <c r="E50" s="25">
-        <v>18810929967</v>
+        <v>18810931902</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
@@ -2825,25 +3026,26 @@
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
-    </row>
-    <row r="51" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N50"/>
+    </row>
+    <row r="51" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E51" s="25">
-        <v>18810089272</v>
+        <v>18810933457</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
@@ -2852,25 +3054,26 @@
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
-    </row>
-    <row r="52" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N51"/>
+    </row>
+    <row r="52" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="E52" s="25">
-        <v>13269669630</v>
+        <v>13269355075</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
@@ -2879,25 +3082,26 @@
       <c r="K52"/>
       <c r="L52"/>
       <c r="M52"/>
-    </row>
-    <row r="53" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N52"/>
+    </row>
+    <row r="53" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="18" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E53" s="25">
-        <v>13264220951</v>
+        <v>18810933407</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -2906,25 +3110,26 @@
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53"/>
-    </row>
-    <row r="54" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N53"/>
+    </row>
+    <row r="54" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="18" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E54" s="25">
-        <v>13718225108</v>
+        <v>18810969385</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -2933,23 +3138,26 @@
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
-    </row>
-    <row r="55" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="26">
-        <v>18810968974</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>144</v>
+      <c r="N54"/>
+    </row>
+    <row r="55" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" s="25">
+        <v>18810929925</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
@@ -2958,23 +3166,26 @@
       <c r="K55"/>
       <c r="L55"/>
       <c r="M55"/>
-    </row>
-    <row r="56" spans="1:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="26">
-        <v>13521269742</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>156</v>
+      <c r="N55"/>
+    </row>
+    <row r="56" spans="1:14" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E56" s="25">
+        <v>18810932070</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -2983,23 +3194,26 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56"/>
-    </row>
-    <row r="57" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="26">
-        <v>13269668138</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>137</v>
+      <c r="N56"/>
+    </row>
+    <row r="57" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="25">
+        <v>18810929967</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -3008,6 +3222,197 @@
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57"/>
+      <c r="N57"/>
+    </row>
+    <row r="58" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="25">
+        <v>18810089272</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+    </row>
+    <row r="59" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="25">
+        <v>13269669630</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+    </row>
+    <row r="60" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="25">
+        <v>13264220951</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+    </row>
+    <row r="61" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" s="25">
+        <v>13718225108</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+    </row>
+    <row r="62" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="26">
+        <v>18810968974</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+    </row>
+    <row r="63" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="26">
+        <v>13521269742</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+    </row>
+    <row r="64" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="26">
+        <v>13269668138</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2013技术部分组.xlsx
+++ b/2013技术部分组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22320" yWindow="0" windowWidth="3750" windowHeight="6510"/>
+    <workbookView xWindow="23250" yWindow="0" windowWidth="3750" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="分组" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="262">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -921,6 +921,133 @@
   </si>
   <si>
     <t>张晨露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅海峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑凯升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光电信息科学与工程</t>
+  </si>
+  <si>
+    <t>应用组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>809510625@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>605195646@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伍堃</t>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>farseerwk@qq.com</t>
+  </si>
+  <si>
+    <t>王琛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2632558449@qq.com</t>
+  </si>
+  <si>
+    <t>宣传部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外联部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾茂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械工程国际版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1120130333@bit.edu.com</t>
+  </si>
+  <si>
+    <t>电脑诊所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,7 +1055,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,6 +1136,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1059,7 +1193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1178,6 +1312,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1187,7 +1333,25 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="样式 1" xfId="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1346,18 +1510,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F64" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G69" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G69"/>
   <sortState ref="A2:F57">
     <sortCondition ref="D1:D57"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" name="姓名" dataDxfId="5"/>
-    <tableColumn id="2" name="性别" dataDxfId="4"/>
-    <tableColumn id="3" name="专业" dataDxfId="3"/>
-    <tableColumn id="4" name="组别" dataDxfId="2"/>
-    <tableColumn id="5" name="电话" dataDxfId="1"/>
-    <tableColumn id="6" name="邮箱" dataDxfId="0"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="姓名" dataDxfId="6"/>
+    <tableColumn id="2" name="性别" dataDxfId="5"/>
+    <tableColumn id="3" name="专业" dataDxfId="4"/>
+    <tableColumn id="4" name="组别" dataDxfId="3"/>
+    <tableColumn id="5" name="电话" dataDxfId="2"/>
+    <tableColumn id="6" name="邮箱" dataDxfId="1"/>
+    <tableColumn id="7" name="部门" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1626,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.25" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1640,7 +1805,8 @@
     <col min="4" max="4" width="28.25" style="8" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="23.25" style="1"/>
+    <col min="7" max="7" width="23.25" style="42"/>
+    <col min="8" max="16384" width="23.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1662,7 +1828,9 @@
       <c r="F1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G1"/>
+      <c r="G1" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
@@ -1687,7 +1855,9 @@
       <c r="F2" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="G2"/>
+      <c r="G2" s="43" t="s">
+        <v>256</v>
+      </c>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
@@ -1713,7 +1883,9 @@
       <c r="F3" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="G3"/>
+      <c r="G3" s="43" t="s">
+        <v>256</v>
+      </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
@@ -1741,7 +1913,9 @@
       <c r="F4" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="G4"/>
+      <c r="G4" s="43" t="s">
+        <v>256</v>
+      </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -1769,7 +1943,9 @@
       <c r="F5" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="G5"/>
+      <c r="G5" s="43" t="s">
+        <v>256</v>
+      </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -1797,7 +1973,9 @@
       <c r="F6" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G6"/>
+      <c r="G6" s="43" t="s">
+        <v>256</v>
+      </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -1825,7 +2003,9 @@
       <c r="F7" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="G7"/>
+      <c r="G7" s="43" t="s">
+        <v>256</v>
+      </c>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -1853,7 +2033,9 @@
       <c r="F8" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="G8"/>
+      <c r="G8" s="43" t="s">
+        <v>256</v>
+      </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -1881,7 +2063,9 @@
       <c r="F9" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G9"/>
+      <c r="G9" s="43" t="s">
+        <v>256</v>
+      </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -1909,7 +2093,9 @@
       <c r="F10" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G10"/>
+      <c r="G10" s="43" t="s">
+        <v>256</v>
+      </c>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -1937,7 +2123,9 @@
       <c r="F11" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="G11"/>
+      <c r="G11" s="43" t="s">
+        <v>256</v>
+      </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -1965,7 +2153,9 @@
       <c r="F12" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="G12"/>
+      <c r="G12" s="43" t="s">
+        <v>256</v>
+      </c>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -1993,7 +2183,9 @@
       <c r="F13" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G13"/>
+      <c r="G13" s="43" t="s">
+        <v>256</v>
+      </c>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
@@ -2021,7 +2213,9 @@
       <c r="F14" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="G14"/>
+      <c r="G14" s="43" t="s">
+        <v>256</v>
+      </c>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
@@ -2049,7 +2243,9 @@
       <c r="F15" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="G15"/>
+      <c r="G15" s="43" t="s">
+        <v>256</v>
+      </c>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
@@ -2077,7 +2273,9 @@
       <c r="F16" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="G16"/>
+      <c r="G16" s="27" t="s">
+        <v>257</v>
+      </c>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -2103,7 +2301,9 @@
       <c r="F17" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="G17"/>
+      <c r="G17" s="27" t="s">
+        <v>257</v>
+      </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -2131,7 +2331,9 @@
       <c r="F18" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="G18"/>
+      <c r="G18" s="27" t="s">
+        <v>257</v>
+      </c>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -2159,7 +2361,9 @@
       <c r="F19" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="G19"/>
+      <c r="G19" s="27" t="s">
+        <v>257</v>
+      </c>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -2169,23 +2373,27 @@
       <c r="N19"/>
     </row>
     <row r="20" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14" t="s">
-        <v>41</v>
+      <c r="A20" s="40" t="s">
+        <v>229</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>85</v>
+        <v>231</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="23">
-        <v>13269557117</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20"/>
+        <v>232</v>
+      </c>
+      <c r="E20" s="41">
+        <v>15035976178</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>257</v>
+      </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -2196,24 +2404,26 @@
     </row>
     <row r="21" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" s="23">
-        <v>13269352272</v>
+        <v>236</v>
+      </c>
+      <c r="E21" s="15">
+        <v>13269320360</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21"/>
+        <v>237</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>250</v>
+      </c>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -2224,24 +2434,24 @@
     </row>
     <row r="22" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>175</v>
       </c>
       <c r="E22" s="23">
-        <v>13269358969</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22"/>
+        <v>13269557117</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="27" t="s">
+        <v>258</v>
+      </c>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -2251,25 +2461,27 @@
       <c r="N22"/>
     </row>
     <row r="23" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" s="24">
-        <v>13269193506</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23"/>
+      <c r="A23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="23">
+        <v>13269352272</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>258</v>
+      </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -2280,24 +2492,26 @@
     </row>
     <row r="24" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>175</v>
       </c>
       <c r="E24" s="23">
-        <v>18810929930</v>
+        <v>13269358969</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24"/>
+        <v>122</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>258</v>
+      </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
@@ -2308,22 +2522,26 @@
     </row>
     <row r="25" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
-        <v>59</v>
+        <v>244</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="E25" s="23">
-        <v>15613734460</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25"/>
+        <v>236</v>
+      </c>
+      <c r="E25" s="15">
+        <v>18810932498</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>248</v>
+      </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
@@ -2334,24 +2552,26 @@
     </row>
     <row r="26" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="23">
-        <v>13269327137</v>
+        <v>242</v>
+      </c>
+      <c r="E26" s="15">
+        <v>13041175754</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26"/>
+        <v>243</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>248</v>
+      </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
@@ -2361,25 +2581,27 @@
       <c r="N26"/>
     </row>
     <row r="27" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E27" s="23">
-        <v>18810929923</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27"/>
+      <c r="A27" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="24">
+        <v>13269193506</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>259</v>
+      </c>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -2390,22 +2612,26 @@
     </row>
     <row r="28" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E28" s="23">
-        <v>18813008913</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28"/>
+        <v>18810929930</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>259</v>
+      </c>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
@@ -2414,26 +2640,26 @@
       <c r="M28"/>
       <c r="N28"/>
     </row>
-    <row r="29" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="E29" s="23">
-        <v>13269282813</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="G29"/>
+        <v>15613734460</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="27" t="s">
+        <v>259</v>
+      </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
@@ -2444,24 +2670,26 @@
     </row>
     <row r="30" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>175</v>
       </c>
       <c r="E30" s="23">
-        <v>13269355161</v>
+        <v>13269327137</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G30"/>
+        <v>125</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>259</v>
+      </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
@@ -2472,24 +2700,26 @@
     </row>
     <row r="31" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E31" s="23">
-        <v>18810930801</v>
+        <v>18810929923</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="G31"/>
+        <v>139</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>259</v>
+      </c>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -2500,24 +2730,24 @@
     </row>
     <row r="32" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E32" s="23">
-        <v>18810932044</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32"/>
+        <v>18813008913</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="27" t="s">
+        <v>259</v>
+      </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
@@ -2528,24 +2758,26 @@
     </row>
     <row r="33" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>110</v>
+        <v>252</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>111</v>
+        <v>253</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E33" s="23">
-        <v>13717591081</v>
+        <v>236</v>
+      </c>
+      <c r="E33" s="15">
+        <v>13269362505</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="G33"/>
+        <v>254</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>255</v>
+      </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
@@ -2554,26 +2786,28 @@
       <c r="M33"/>
       <c r="N33"/>
     </row>
-    <row r="34" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>175</v>
       </c>
       <c r="E34" s="23">
-        <v>15641817006</v>
+        <v>13269282813</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G34"/>
+        <v>162</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>260</v>
+      </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
@@ -2582,26 +2816,28 @@
       <c r="M34"/>
       <c r="N34"/>
     </row>
-    <row r="35" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>175</v>
       </c>
       <c r="E35" s="23">
-        <v>18810931246</v>
+        <v>13269355161</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G35"/>
+        <v>140</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>260</v>
+      </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
@@ -2610,26 +2846,28 @@
       <c r="M35"/>
       <c r="N35"/>
     </row>
-    <row r="36" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E36" s="23">
-        <v>18810929690</v>
+        <v>18810930801</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G36"/>
+        <v>171</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>260</v>
+      </c>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
@@ -2638,24 +2876,28 @@
       <c r="M36"/>
       <c r="N36"/>
     </row>
-    <row r="37" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E37" s="23">
-        <v>18643267208</v>
-      </c>
-      <c r="F37" s="15"/>
-      <c r="G37"/>
+        <v>18810932044</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>260</v>
+      </c>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
@@ -2664,26 +2906,28 @@
       <c r="M37"/>
       <c r="N37"/>
     </row>
-    <row r="38" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="14" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E38" s="23">
-        <v>13269569950</v>
+        <v>13717591081</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="G38"/>
+        <v>170</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>260</v>
+      </c>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
@@ -2694,24 +2938,26 @@
     </row>
     <row r="39" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>175</v>
       </c>
       <c r="E39" s="23">
-        <v>18611939243</v>
+        <v>15641817006</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G39"/>
+        <v>128</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>260</v>
+      </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
@@ -2722,24 +2968,26 @@
     </row>
     <row r="40" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>175</v>
       </c>
       <c r="E40" s="23">
-        <v>13269320397</v>
+        <v>18810931246</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G40"/>
+        <v>168</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>260</v>
+      </c>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
@@ -2750,24 +2998,26 @@
     </row>
     <row r="41" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="14" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>175</v>
       </c>
       <c r="E41" s="23">
-        <v>18686973711</v>
+        <v>18810929690</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G41"/>
+        <v>160</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>260</v>
+      </c>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
@@ -2778,24 +3028,24 @@
     </row>
     <row r="42" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="14" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="E42" s="23">
-        <v>18813006553</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G42"/>
+        <v>18643267208</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="27" t="s">
+        <v>260</v>
+      </c>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
@@ -2806,24 +3056,26 @@
     </row>
     <row r="43" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="14" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E43" s="23">
-        <v>13269688931</v>
+        <v>13269569950</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="G43"/>
+        <v>148</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>260</v>
+      </c>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
@@ -2834,24 +3086,26 @@
     </row>
     <row r="44" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="14" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="E44" s="23">
-        <v>13269626891</v>
+        <v>18611939243</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G44"/>
+        <v>155</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>260</v>
+      </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
@@ -2860,26 +3114,28 @@
       <c r="M44"/>
       <c r="N44"/>
     </row>
-    <row r="45" spans="1:14" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="14" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="E45" s="23">
-        <v>18810965270</v>
+        <v>13269320397</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="G45"/>
+        <v>136</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>260</v>
+      </c>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
@@ -2888,82 +3144,88 @@
       <c r="M45"/>
       <c r="N45"/>
     </row>
-    <row r="46" spans="1:14" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="E46" s="37">
-        <v>18001356302</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-    </row>
-    <row r="47" spans="1:14" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="E47" s="37">
-        <v>13718909663</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-    </row>
-    <row r="48" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="E48" s="25">
-        <v>15350667769</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48"/>
+    <row r="46" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" s="23">
+        <v>18686973711</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+    </row>
+    <row r="47" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E47" s="23">
+        <v>18813006553</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+    </row>
+    <row r="48" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" s="23">
+        <v>13269688931</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>260</v>
+      </c>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
@@ -2972,26 +3234,28 @@
       <c r="M48"/>
       <c r="N48"/>
     </row>
-    <row r="49" spans="1:14" s="20" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E49" s="25">
-        <v>13269101298</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G49"/>
+    <row r="49" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E49" s="23">
+        <v>13269626891</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>260</v>
+      </c>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
@@ -3000,26 +3264,28 @@
       <c r="M49"/>
       <c r="N49"/>
     </row>
-    <row r="50" spans="1:14" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E50" s="25">
-        <v>18810931902</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="G50"/>
+    <row r="50" spans="1:14" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" s="23">
+        <v>18810965270</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>260</v>
+      </c>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
@@ -3028,82 +3294,88 @@
       <c r="M50"/>
       <c r="N50"/>
     </row>
-    <row r="51" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E51" s="25">
-        <v>18810933457</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
-    </row>
-    <row r="52" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="E52" s="25">
-        <v>13269355075</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-    </row>
-    <row r="53" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="E51" s="37">
+        <v>18001356302</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+    </row>
+    <row r="52" spans="1:14" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="E52" s="37">
+        <v>13718909663</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+    </row>
+    <row r="53" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="18" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>92</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E53" s="25">
-        <v>18810933407</v>
+        <v>15350667769</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G53"/>
+        <v>129</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>261</v>
+      </c>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
@@ -3112,26 +3384,28 @@
       <c r="M53"/>
       <c r="N53"/>
     </row>
-    <row r="54" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" s="20" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="18" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E54" s="25">
-        <v>18810969385</v>
+        <v>13269101298</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="G54"/>
+        <v>123</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>261</v>
+      </c>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
@@ -3140,26 +3414,28 @@
       <c r="M54"/>
       <c r="N54"/>
     </row>
-    <row r="55" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="18" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E55" s="25">
-        <v>18810929925</v>
+        <v>18810931902</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G55"/>
+        <v>149</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>261</v>
+      </c>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
@@ -3168,26 +3444,28 @@
       <c r="M55"/>
       <c r="N55"/>
     </row>
-    <row r="56" spans="1:14" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="18" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E56" s="25">
-        <v>18810932070</v>
+        <v>18810933457</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="G56"/>
+        <v>161</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>261</v>
+      </c>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
@@ -3198,24 +3476,26 @@
     </row>
     <row r="57" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="18" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="E57" s="25">
-        <v>18810929967</v>
+        <v>13269355075</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="G57"/>
+        <v>134</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>261</v>
+      </c>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
@@ -3224,26 +3504,28 @@
       <c r="M57"/>
       <c r="N57"/>
     </row>
-    <row r="58" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="18" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>174</v>
       </c>
       <c r="E58" s="25">
-        <v>18810089272</v>
+        <v>18810933407</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G58"/>
+        <v>159</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>261</v>
+      </c>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
@@ -3254,24 +3536,26 @@
     </row>
     <row r="59" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="18" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E59" s="25">
-        <v>13269669630</v>
+        <v>18810969385</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="G59"/>
+        <v>150</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>261</v>
+      </c>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
@@ -3280,26 +3564,28 @@
       <c r="M59"/>
       <c r="N59"/>
     </row>
-    <row r="60" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="18" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E60" s="25">
-        <v>13264220951</v>
+        <v>18810929925</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G60"/>
+        <v>133</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>261</v>
+      </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
@@ -3308,26 +3594,28 @@
       <c r="M60"/>
       <c r="N60"/>
     </row>
-    <row r="61" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E61" s="25">
-        <v>13718225108</v>
+        <v>18810932070</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="G61"/>
+        <v>167</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>261</v>
+      </c>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
@@ -3337,23 +3625,27 @@
       <c r="N61"/>
     </row>
     <row r="62" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="26">
-        <v>18810968974</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G62"/>
+      <c r="A62" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" s="25">
+        <v>18810929967</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>261</v>
+      </c>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
@@ -3362,24 +3654,28 @@
       <c r="M62"/>
       <c r="N62"/>
     </row>
-    <row r="63" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="26">
-        <v>13521269742</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G63"/>
+    <row r="63" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E63" s="25">
+        <v>18810089272</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>261</v>
+      </c>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
@@ -3388,24 +3684,28 @@
       <c r="M63"/>
       <c r="N63"/>
     </row>
-    <row r="64" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64" s="7" t="s">
+    <row r="64" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="26">
-        <v>13269668138</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G64"/>
+      <c r="C64" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E64" s="25">
+        <v>13269669630</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>261</v>
+      </c>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
@@ -3413,6 +3713,144 @@
       <c r="L64"/>
       <c r="M64"/>
       <c r="N64"/>
+    </row>
+    <row r="65" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E65" s="25">
+        <v>13264220951</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+    </row>
+    <row r="66" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E66" s="25">
+        <v>13718225108</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+    </row>
+    <row r="67" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="26">
+        <v>18810968974</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G67" s="42"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+    </row>
+    <row r="68" spans="1:14" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="26">
+        <v>13521269742</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G68" s="42"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+    </row>
+    <row r="69" spans="1:14" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="26">
+        <v>13269668138</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G69" s="42"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2013技术部分组.xlsx
+++ b/2013技术部分组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24180" yWindow="0" windowWidth="3750" windowHeight="6510"/>
+    <workbookView xWindow="25110" yWindow="0" windowWidth="3750" windowHeight="6510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="网页组" sheetId="1" r:id="rId1"/>
@@ -1090,7 +1090,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1172,6 +1172,9 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - 着色 1" xfId="2" builtinId="31"/>
@@ -1181,60 +1184,6 @@
     <cellStyle name="样式 1" xfId="1"/>
   </cellStyles>
   <dxfs count="24">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1334,17 +1283,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1432,6 +1370,17 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1472,6 +1421,60 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1545,41 +1548,41 @@
   <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
     <tableColumn id="1" name="姓名" dataDxfId="21"/>
-    <tableColumn id="2" name="性别" dataDxfId="2"/>
-    <tableColumn id="3" name="专业" dataDxfId="0"/>
-    <tableColumn id="5" name="电话" dataDxfId="1"/>
-    <tableColumn id="6" name="邮箱" dataDxfId="20"/>
-    <tableColumn id="7" name="部门" dataDxfId="19"/>
+    <tableColumn id="2" name="性别" dataDxfId="20"/>
+    <tableColumn id="3" name="专业" dataDxfId="19"/>
+    <tableColumn id="5" name="电话" dataDxfId="18"/>
+    <tableColumn id="6" name="邮箱" dataDxfId="17"/>
+    <tableColumn id="7" name="部门" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:F36" totalsRowShown="0" headerRowDxfId="18" dataDxfId="10" dataCellStyle="40% - 着色 4">
-  <autoFilter ref="A1:F36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:F35" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" dataCellStyle="40% - 着色 4">
+  <autoFilter ref="A1:F35"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="姓名" dataDxfId="16" dataCellStyle="40% - 着色 4"/>
-    <tableColumn id="2" name="性别" dataDxfId="15" dataCellStyle="40% - 着色 4"/>
-    <tableColumn id="3" name="专业" dataDxfId="14" dataCellStyle="40% - 着色 4"/>
-    <tableColumn id="5" name="手机" dataDxfId="13" dataCellStyle="40% - 着色 4"/>
-    <tableColumn id="6" name="邮箱" dataDxfId="12" dataCellStyle="40% - 着色 4"/>
-    <tableColumn id="7" name="组别" dataDxfId="11" dataCellStyle="40% - 着色 4"/>
+    <tableColumn id="1" name="姓名" dataDxfId="13" dataCellStyle="40% - 着色 4"/>
+    <tableColumn id="2" name="性别" dataDxfId="12" dataCellStyle="40% - 着色 4"/>
+    <tableColumn id="3" name="专业" dataDxfId="11" dataCellStyle="40% - 着色 4"/>
+    <tableColumn id="5" name="手机" dataDxfId="10" dataCellStyle="40% - 着色 4"/>
+    <tableColumn id="6" name="邮箱" dataDxfId="9" dataCellStyle="40% - 着色 4"/>
+    <tableColumn id="7" name="组别" dataDxfId="8" dataCellStyle="40% - 着色 4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:F17" totalsRowShown="0" headerRowDxfId="17" dataDxfId="3" dataCellStyle="40% - 着色 6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:F17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" dataCellStyle="40% - 着色 6">
   <autoFilter ref="A1:F17"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="姓名" dataDxfId="9" dataCellStyle="40% - 着色 6"/>
-    <tableColumn id="2" name="性别" dataDxfId="8" dataCellStyle="40% - 着色 6"/>
-    <tableColumn id="3" name="专业" dataDxfId="7" dataCellStyle="40% - 着色 6"/>
-    <tableColumn id="5" name="手机" dataDxfId="6" dataCellStyle="40% - 着色 6"/>
-    <tableColumn id="6" name="邮箱" dataDxfId="5" dataCellStyle="40% - 着色 6"/>
-    <tableColumn id="7" name="部门" dataDxfId="4" dataCellStyle="40% - 着色 6"/>
+    <tableColumn id="1" name="姓名" dataDxfId="5" dataCellStyle="40% - 着色 6"/>
+    <tableColumn id="2" name="性别" dataDxfId="4" dataCellStyle="40% - 着色 6"/>
+    <tableColumn id="3" name="专业" dataDxfId="3" dataCellStyle="40% - 着色 6"/>
+    <tableColumn id="5" name="手机" dataDxfId="2" dataCellStyle="40% - 着色 6"/>
+    <tableColumn id="6" name="邮箱" dataDxfId="1" dataCellStyle="40% - 着色 6"/>
+    <tableColumn id="7" name="部门" dataDxfId="0" dataCellStyle="40% - 着色 6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1850,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.25" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2281,10 +2284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2594,19 +2597,19 @@
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D16" s="10">
-        <v>13269327137</v>
+        <v>18810929923</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>224</v>
@@ -2614,77 +2617,77 @@
     </row>
     <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17" s="10">
-        <v>18810929923</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>139</v>
-      </c>
+        <v>18813008913</v>
+      </c>
+      <c r="E17" s="10"/>
       <c r="F17" s="22" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="D18" s="10">
-        <v>18813008913</v>
-      </c>
-      <c r="E18" s="10"/>
+        <v>13269362505</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>219</v>
+      </c>
       <c r="F18" s="22" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22" t="s">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>218</v>
+        <v>98</v>
       </c>
       <c r="D19" s="10">
-        <v>13269362505</v>
+        <v>13269282813</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D20" s="10">
-        <v>13269282813</v>
+        <v>13269355161</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>225</v>
@@ -2692,19 +2695,19 @@
     </row>
     <row r="21" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="D21" s="10">
-        <v>13269355161</v>
+        <v>18810930801</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>225</v>
@@ -2712,19 +2715,19 @@
     </row>
     <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D22" s="10">
-        <v>18810930801</v>
+        <v>18810932044</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>225</v>
@@ -2732,19 +2735,19 @@
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="D23" s="10">
-        <v>18810932044</v>
+        <v>13717591081</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>225</v>
@@ -2752,19 +2755,19 @@
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D24" s="10">
-        <v>13717591081</v>
+        <v>15641817006</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>225</v>
@@ -2772,19 +2775,19 @@
     </row>
     <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D25" s="10">
-        <v>15641817006</v>
+        <v>18810931246</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>225</v>
@@ -2792,19 +2795,19 @@
     </row>
     <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="22" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="10">
-        <v>18810931246</v>
+        <v>18810929690</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>225</v>
@@ -2812,57 +2815,57 @@
     </row>
     <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D27" s="10">
-        <v>18810929690</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>160</v>
-      </c>
+        <v>18643267208</v>
+      </c>
+      <c r="E27" s="10"/>
       <c r="F27" s="22" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="D28" s="10">
-        <v>18643267208</v>
-      </c>
-      <c r="E28" s="10"/>
+        <v>13269569950</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>148</v>
+      </c>
       <c r="F28" s="22" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="22" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="D29" s="10">
-        <v>13269569950</v>
+        <v>18611939243</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>225</v>
@@ -2870,19 +2873,19 @@
     </row>
     <row r="30" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D30" s="10">
-        <v>18611939243</v>
+        <v>13269320397</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>225</v>
@@ -2890,19 +2893,19 @@
     </row>
     <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D31" s="10">
-        <v>13269320397</v>
+        <v>18686973711</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>225</v>
@@ -2910,19 +2913,19 @@
     </row>
     <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="22" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="D32" s="10">
-        <v>18686973711</v>
+        <v>18813006553</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>225</v>
@@ -2930,19 +2933,19 @@
     </row>
     <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D33" s="10">
-        <v>18813006553</v>
+        <v>13269688931</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F33" s="22" t="s">
         <v>225</v>
@@ -2950,19 +2953,19 @@
     </row>
     <row r="34" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="22" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="D34" s="10">
-        <v>13269688931</v>
+        <v>13269626891</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F34" s="22" t="s">
         <v>225</v>
@@ -2970,41 +2973,21 @@
     </row>
     <row r="35" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D35" s="10">
-        <v>13269626891</v>
+        <v>18810965270</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="10">
-        <v>18810965270</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="22" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3019,10 +3002,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3372,6 +3355,26 @@
       </c>
       <c r="F17" s="23" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="27">
+        <v>13269327137</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
